--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1903983.066208412</v>
+        <v>-1905980.739221256</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>312082.5728613983</v>
+        <v>423555.0377086613</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>328.6405760835782</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>308.303610244072</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>96.31819090501394</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12.60504874387557</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>132.5423589780353</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1407479991918</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>57.87036115869476</v>
+        <v>79.44408807900599</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.7218456862864</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>192.5627265154902</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>18.46423243228393</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3269231694991</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>142.7197497247931</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>194.7880737864211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>163.2354003954942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>158.1061456681074</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>137.4666466457415</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>79.29281606331548</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463126</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415206</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T25" t="n">
-        <v>153.4156709287489</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U25" t="n">
         <v>218.1054622689367</v>
@@ -2539,10 +2539,10 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224559</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522971</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
@@ -2773,10 +2773,10 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069516</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y28" t="n">
         <v>150.4527632224541</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857304</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329066</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346314</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415221</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941874</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224542</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329066</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.2873553346314</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415221</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>846.0214659145972</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2544.829299624459</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2171.363541363379</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4419,31 +4419,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>1546.007598651101</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1177.04508171069</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>818.7793831039394</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>818.7793831039394</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>811.8338823547359</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>393.8700742529228</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>66.67535428892563</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2508.239230863831</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2508.239230863831</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2254.477445501923</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1923.414558158352</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1923.414558158352</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1923.414558158352</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1533.27522618254</v>
+        <v>1546.007598651101</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.041796525165</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.079279584754</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D8" t="n">
-        <v>1094.813580978003</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E8" t="n">
-        <v>1094.813580978003</v>
+        <v>712.564820291449</v>
       </c>
       <c r="F8" t="n">
-        <v>683.8276761883958</v>
+        <v>705.6193195422455</v>
       </c>
       <c r="G8" t="n">
-        <v>265.8638680865827</v>
+        <v>287.6555114404324</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4847,7 +4847,7 @@
         <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1822.041796525165</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,13 +5066,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5121,22 +5121,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>488.6335221749971</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.530591931886</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.865911461588</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.386567099205</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.3586382081043</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>493.3586382081043</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>493.3586382081043</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>345.4455446257111</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>345.4455446257111</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>345.4455446257111</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>675.007103038344</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.007103038344</v>
+        <v>1159.85161622171</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,22 +5261,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N15" t="n">
-        <v>1953.181607381369</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.935021465331</v>
+        <v>1916.402312678656</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2436.702934414403</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>671.7300455988212</v>
+        <v>241.3784548186627</v>
       </c>
       <c r="C16" t="n">
-        <v>671.7300455988212</v>
+        <v>241.3784548186627</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>241.3784548186627</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1302.160640470608</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W16" t="n">
-        <v>1302.160640470608</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X16" t="n">
-        <v>1074.171089572591</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="Y16" t="n">
-        <v>853.378510429061</v>
+        <v>423.0269196489024</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,19 +5598,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>894.5540770733951</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.105874218302</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1222.956924295996</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>999.1715090855023</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>999.1715090855023</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1715090855023</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W19" t="n">
-        <v>709.7543390485417</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X19" t="n">
-        <v>709.7543390485417</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.7543390485417</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>625.1776629541243</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1239.074732711013</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1559.410052240715</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.5712828402495</v>
+        <v>534.1020230870769</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>534.1020230870769</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>383.9853836747411</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>236.072290092348</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X22" t="n">
-        <v>416.5712828402495</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y22" t="n">
-        <v>416.5712828402495</v>
+        <v>534.1020230870769</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1442.339749591389</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.860405229007</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,49 +6148,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M25" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q25" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045222</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6215,61 +6215,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1838454192343</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1180.519164948936</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6409,13 +6409,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
         <v>1304.027639859417</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,22 +6449,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1442.339749591389</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1786.860405229007</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2035.613819312969</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6646,25 +6646,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.460239110832</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649682</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010307</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>647.5155168583368</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525408</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7163,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>647.5155168583368</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649689</v>
@@ -7351,22 +7351,22 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>783.5490372870996</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7661,22 +7661,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,10 +9498,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>73.62675982818972</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>252.9227778123991</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.83286064902354</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>141.9779586518113</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.3677477496534</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>13.58690519803707</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985813</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.714212921776067</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,13 +23710,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>57.34956953740686</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.68540958810908</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>128.13120673047</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>7.954401377189726</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>146.4168393257217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.664668415891536e-12</v>
       </c>
     </row>
     <row r="26">
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1250650.855651776</v>
+        <v>1250650.855651775</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1329498.803108211</v>
+        <v>1329498.80310821</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1329498.80310821</v>
+        <v>1329498.803108211</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1329498.80310821</v>
+        <v>1329498.803108211</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564042</v>
+        <v>36783.84869564041</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
+        <v>39102.90597377086</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39102.90597377088</v>
+      </c>
+      <c r="G2" t="n">
         <v>39102.90597377089</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39102.90597377087</v>
-      </c>
-      <c r="G2" t="n">
-        <v>39102.90597377088</v>
       </c>
       <c r="H2" t="n">
         <v>39102.90597377087</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321424</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321424</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321418</v>
       </c>
-      <c r="L2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321421</v>
-      </c>
       <c r="N2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321423</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892132</v>
+        <v>90335.72423892131</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,37 +26424,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759049</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905759104</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="I4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189638</v>
       </c>
       <c r="K4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189632</v>
       </c>
-      <c r="L4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="N4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189633</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26479,31 +26479,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726378.8328212347</v>
+        <v>-726592.2448111133</v>
       </c>
       <c r="C6" t="n">
         <v>-180866.1287508144</v>
@@ -26528,16 +26528,16 @@
         <v>-180866.1287508144</v>
       </c>
       <c r="E6" t="n">
-        <v>-578832.2501424176</v>
+        <v>-578929.7092683896</v>
       </c>
       <c r="F6" t="n">
-        <v>-53672.21366552168</v>
+        <v>-53769.67279149381</v>
       </c>
       <c r="G6" t="n">
-        <v>-53672.21366552162</v>
+        <v>-53769.67279149377</v>
       </c>
       <c r="H6" t="n">
-        <v>-53672.21366552165</v>
+        <v>-53769.67279149382</v>
       </c>
       <c r="I6" t="n">
         <v>-134375.1103624201</v>
@@ -26546,22 +26546,22 @@
         <v>-256292.8174513006</v>
       </c>
       <c r="K6" t="n">
-        <v>-79869.59825870767</v>
+        <v>-79869.59825870753</v>
       </c>
       <c r="L6" t="n">
         <v>-79869.59825870753</v>
       </c>
       <c r="M6" t="n">
-        <v>-214670.6134925446</v>
+        <v>-214670.6134925445</v>
       </c>
       <c r="N6" t="n">
         <v>-134375.1103624201</v>
       </c>
       <c r="O6" t="n">
-        <v>-79869.59825870742</v>
+        <v>-79869.59825870764</v>
       </c>
       <c r="P6" t="n">
-        <v>-79869.59825870751</v>
+        <v>-79869.5982587075</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964058</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26741,31 +26741,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>26.04246553710476</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>126.4139604496043</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>154.4639619306336</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>139.3262675009857</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>41.87335383093617</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>50.9968953246362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>266.0524116056624</v>
+        <v>244.4786846853511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>15.42369326373247</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.02192683660456</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28801,73 +28801,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="26">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,19 +31832,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>268.7463339968423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>111.3199910445496</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,10 +32075,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32093,19 +32093,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>171.3135836203301</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>118.6626388367732</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>158.0642534345934</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -32330,19 +32330,19 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>339.3147979156453</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,10 +32549,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6684942258977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32561,25 +32561,25 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.4090972701572</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>224.6051223555644</v>
       </c>
       <c r="O24" t="n">
-        <v>68.34248921961813</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33035,25 +33035,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>34.71740571127339</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,28 +33269,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>111.3199910445496</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>224.6051223555648</v>
@@ -33521,13 +33521,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>137.4075963926897</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N39" t="n">
-        <v>148.1449823495585</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34129,7 +34129,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>369.6935619162747</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34369,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>380.4309478731435</v>
+        <v>224.6051223555644</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>395.3701320350619</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>295.8083522701565</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35741,10 +35741,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>355.801944845937</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>188.7581524866008</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>390.3502189581784</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
@@ -35978,10 +35978,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>523.8031591412522</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>365.2922922641173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36209,16 +36209,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>492.6751721024423</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157846</v>
       </c>
       <c r="O24" t="n">
-        <v>319.6085640519032</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520627</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L25" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502437</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
@@ -36683,16 +36683,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>382.7180679714936</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36771,7 +36771,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,19 +36917,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>295.8083522701565</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37008,7 +37008,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>572.6057846157851</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>485.4082586529099</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520611</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N39" t="n">
-        <v>496.1456446097787</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520611</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>693.2645917442563</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N45" t="n">
-        <v>728.4316101333637</v>
+        <v>572.6057846157846</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
